--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328580D1-3BAC-4664-950D-7821EC64F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78DBE2-4987-4A21-84A8-FF54760BDF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="785">
   <si>
     <t>系统管理</t>
   </si>
@@ -2567,119 +2567,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>oms:order:query</t>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping/Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping/Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping/Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlDiffLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping/ProductEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms:orderaddress:edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms:order:ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms:orderaddress:view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order/details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orderDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	article/articleTopic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesDashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order/salesDashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms:sale:query</t>
+  </si>
+  <si>
     <t>oms:order:list</t>
-  </si>
-  <si>
-    <t>oms:order:query</t>
-  </si>
-  <si>
-    <t>订单详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>oms:order:edit</t>
-  </si>
-  <si>
-    <t>订单编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>oms:order:export</t>
-  </si>
-  <si>
-    <t>shopping/Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping/Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping/Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlDiffLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping/ProductEdit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oms:orderaddress:edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oms:order:ship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oms:orderaddress:view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order/details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/orderDetails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	article/articleTopic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salesDashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order/salesDashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oms:sale:query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5289,7 +5296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomLeft" activeCell="L170" sqref="L170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6620,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>530</v>
@@ -10443,7 +10450,7 @@
         <v>704</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G139" s="18">
         <v>0</v>
@@ -10660,7 +10667,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12">
@@ -10699,7 +10706,7 @@
         <v>739</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G146" s="20">
         <v>0</v>
@@ -10717,7 +10724,7 @@
         <v>725</v>
       </c>
       <c r="L146" s="20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="M146" s="12"/>
       <c r="N146" s="12"/>
@@ -10855,7 +10862,7 @@
         <v>1142</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C151" s="20">
         <v>11</v>
@@ -10864,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F151" s="20" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G151" s="20">
         <v>0</v>
@@ -10901,7 +10908,7 @@
         <v>740</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G152" s="14">
         <v>0</v>
@@ -11067,7 +11074,7 @@
         <v>742</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G157" s="21">
         <v>0</v>
@@ -11230,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F162" s="14" t="s">
         <v>751</v>
@@ -11248,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="L162" s="14" t="s">
         <v>750</v>
@@ -11259,7 +11266,7 @@
         <v>1139</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C163" s="14">
         <v>11</v>
@@ -11268,10 +11275,10 @@
         <v>2</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G163" s="14">
         <v>0</v>
@@ -11286,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L163" s="14"/>
     </row>
@@ -11295,7 +11302,7 @@
         <v>1140</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C164" s="14">
         <v>1138</v>
@@ -11318,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="L164" s="14"/>
     </row>
@@ -11327,7 +11334,7 @@
         <v>1141</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C165" s="14">
         <v>1138</v>
@@ -11350,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="L165" s="14"/>
     </row>
@@ -11359,7 +11366,7 @@
         <v>1143</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C166" s="14">
         <v>1138</v>
@@ -11382,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L166" s="14"/>
     </row>
@@ -11391,7 +11398,7 @@
         <v>1144</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C167" s="14">
         <v>1138</v>
@@ -11414,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="K167" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L167" s="14"/>
     </row>
@@ -11423,7 +11430,7 @@
         <v>1145</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C168" s="14">
         <v>1138</v>
@@ -11446,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="K168" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L168" s="14"/>
     </row>
@@ -11455,7 +11462,7 @@
         <v>1146</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C169" s="14">
         <v>11</v>
@@ -11464,10 +11471,10 @@
         <v>7</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G169" s="14">
         <v>0</v>
@@ -11482,9 +11489,11 @@
         <v>0</v>
       </c>
       <c r="K169" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="L169" s="14"/>
+        <v>780</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>784</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF1D07-AAE9-4611-A891-BBC371788D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64476A-BEA8-4DB3-8CF8-B6BE700D1C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5292,8 +5292,8 @@
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5722,7 +5722,7 @@
         <v>797</v>
       </c>
       <c r="I11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
-        <v>1128</v>
+        <v>120</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>729</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
-        <v>1129</v>
+        <v>121</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C159" s="14">
-        <v>1128</v>
+        <v>120</v>
       </c>
       <c r="D159" s="14">
         <v>2</v>
@@ -11162,13 +11162,13 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
-        <v>1130</v>
+        <v>122</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C160" s="14">
-        <v>1128</v>
+        <v>120</v>
       </c>
       <c r="D160" s="14">
         <v>3</v>
@@ -11194,13 +11194,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
-        <v>1131</v>
+        <v>123</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>262</v>
       </c>
       <c r="C161" s="14">
-        <v>1128</v>
+        <v>120</v>
       </c>
       <c r="D161" s="14">
         <v>4</v>
@@ -11226,13 +11226,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
-        <v>1132</v>
+        <v>124</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C162" s="14">
-        <v>1128</v>
+        <v>120</v>
       </c>
       <c r="D162" s="14">
         <v>5</v>
@@ -11703,7 +11703,7 @@
   <conditionalFormatting sqref="A139:A150">
     <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A1048576 A1:A10 A26:A138">
+  <conditionalFormatting sqref="A1:A10 A26:A138 A151:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
@@ -11721,7 +11721,7 @@
   <conditionalFormatting sqref="L153:L156 B153:J156">
     <cfRule type="duplicateValues" dxfId="4" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L159:L162 B159:J162">
+  <conditionalFormatting sqref="L159:L162 B159:F162">
     <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L164:L167 B168 H168 B164:J167">
